--- a/database_sisters/justPlayin/3.xlsx
+++ b/database_sisters/justPlayin/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bridg\PycharmProjects\database-sisters\database_sisters\justPlayin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609570B-9D54-4359-9214-BCA140ECDC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169444A-73C0-4C4E-8EE1-35AF920B483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="0" windowWidth="11250" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="735">
   <si>
     <t>1786-09-04</t>
   </si>
@@ -12822,110 +12822,124 @@
     <t>AT SEA</t>
   </si>
   <si>
-    <t>DW22.001.D003</t>
-  </si>
-  <si>
-    <t>DW22.001.D001, DW22.001.D002</t>
-  </si>
-  <si>
-    <t>DW22.001.D004</t>
-  </si>
-  <si>
-    <t>DW22.001.D006</t>
-  </si>
-  <si>
-    <t>DW22.001.D007, DW22.001.D009, DSW22.002.001, DW22.001.D010</t>
-  </si>
-  <si>
-    <t>DW22.001.D013</t>
-  </si>
-  <si>
-    <t>DW22.001.015</t>
-  </si>
-  <si>
-    <t>DSW22.002.002</t>
-  </si>
-  <si>
-    <t>DW22.001.018</t>
-  </si>
-  <si>
-    <t>DW22.001.D020</t>
-  </si>
-  <si>
-    <t>DW22.001.021, DSW22.002.003</t>
-  </si>
-  <si>
-    <t>DSW22.002.004</t>
-  </si>
-  <si>
-    <t>DSW22.002.006</t>
-  </si>
-  <si>
-    <t>DSW22.002.007</t>
-  </si>
-  <si>
-    <t>DW22.001.022</t>
-  </si>
-  <si>
-    <t>DSW22.002.008</t>
-  </si>
-  <si>
-    <t>DSW22.002.009</t>
-  </si>
-  <si>
-    <t>DSW22.002.010</t>
-  </si>
-  <si>
-    <t>DSW22.002.011</t>
-  </si>
-  <si>
-    <t>DSW22.002.012</t>
-  </si>
-  <si>
-    <t>DSW22.002.013</t>
-  </si>
-  <si>
-    <t>DSW22.002.014</t>
-  </si>
-  <si>
-    <t>DSW22.002.015</t>
-  </si>
-  <si>
-    <t>DW22.001.023</t>
-  </si>
-  <si>
-    <t>DSW22.002.016</t>
-  </si>
-  <si>
-    <t>DSW22.002.017</t>
-  </si>
-  <si>
-    <t>DW22.001.024</t>
-  </si>
-  <si>
-    <t>DSW22.002.018</t>
-  </si>
-  <si>
-    <t>DSW22.002.019</t>
-  </si>
-  <si>
-    <t>DSW22.002.020</t>
-  </si>
-  <si>
-    <t>DSW22.002.021</t>
-  </si>
-  <si>
-    <t>DSW22.002.023</t>
+    <t>https://drive.google.com/file/d/1EyDH8SBVhQeDzkZXrfFr8nQDAncBniDs/view?usp=drive_link, https://drive.google.com/file/d/1Moot0PfWxBiFTLzVS5aSzpdn3j9AK4XE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15A3Hw-5yc9XqPTQvJ_GOn9xcdP9h4s43/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GY7pnbHB3PdOFegLq03cNufljrvxguWb/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nlM6d5fDcjTJAUVhRB-4QBQovw9dHQsh/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kkWE2MzSz4fhaVSQbga8X3zB5HLLGHpS/view?usp=drive_link, https://drive.google.com/file/d/1C1Ny7kKvKG0L0I30ylSZVWJtBLJgP0Dz/view?usp=drive_link, https://drive.google.com/file/d/1pmeFJb93YAFabzvgBx82vxB5HvNxnSim/view?usp=drive_link, https://drive.google.com/file/d/1jtwLJI_Z-P56fohDA4syq7ErYjwBGfvi/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17aLkp_qoXsj2hS0a-jPDfBX7Y4ZUfav7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nKjwexEILAVJkJyWkiwPdpJQN99nLIw6/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-DsseTZn157AX_mZD7RY_8j4FMvgxsLA/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iji_OJsYboLX21Sia1e_gL42LG33k9jP/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rM8o_uBpQts0T0A3lEOr8ee8OoIPsasi/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lWNGK7EeYCMgmzQnb-I5YAt_95b7bNU7/view?usp=drive_link, https://drive.google.com/file/d/1VwEAu__iJG4OJ78lpPPZgbrSTh5CGbkM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nXyNRGaCUhg0XYCdlk_LjYHiKtiMznvG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aVfN2-qD5_jTYoFgwko34DzS7CUhruo5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MuaxaLHl-1EnlJE7mVt8FlaLQHhtlJr8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C8oouDQtIEHJ91spDmOdRrmzvkPvs_uK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rvwkniDzOMo306ZVAYVm-CvEaEmsLvv_/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hqOK6dlRx2znlgYoCIjjhcODCuHKn3c1/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wAFCCZ4VL7yHvjZlh07m9uNDukxwCtaz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z81z7UZsmroKqJm_OcQlnuwaUbtPEvA3/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bhzrv44iyF0BDeBfJzdAnG0XN9lY3Fmw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QOU1C8ChU7EoYe2idyGon9e-jKQVwyad/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/169kzeVlLbVwTyoSSfNmebz-7CasPYdT9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fWPQTJRCRrMONPDEcIrZ-ZPPuxDvEUSW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jIPCMefj-PX5HhVO23rA_OA6XhjpQYKr/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oOai3YnxiWZaorDBuiySaEZcsbKPiD1m/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_UP5_QtXeHt9qe7guLz7D4CF4xpH_HyQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pVLKUa0w6hJzDnTQyXPSM3ujZTSzH2o4/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bdYTlLV9naJlqaK_7CClA8Vr0zAgfstW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fWCKrPz8eMKZJGtYOlG5WBBniqcdFZGn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uQUyD7jvkJJWvqBuB7vuhLAXq6aPsJH1/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n-zsr3qQHSSGvGHEpHEgJZlGaIE_HOLs/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bJHufY6jVJMUMsaCixBuR7X4AQCn9yW4/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14EIiAlvZR522cctNpw4XhE0ojasPVvG1/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12948,16 +12962,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13260,22 +13282,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
+      <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.9296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.73046875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="5.59765625" style="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="5.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -13284,8 +13307,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>703</v>
+      <c r="D1" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -13295,7 +13318,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -13304,8 +13327,8 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>702</v>
+      <c r="D2" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -13315,7 +13338,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13332,7 +13355,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -13341,7 +13364,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>704</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -13352,7 +13375,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -13361,7 +13384,7 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>705</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -13372,7 +13395,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -13389,7 +13412,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -13403,7 +13426,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -13420,7 +13443,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -13437,7 +13460,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -13454,7 +13477,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13471,7 +13494,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -13485,7 +13508,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -13502,7 +13525,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -13516,7 +13539,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -13533,7 +13556,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -13550,7 +13573,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -13564,7 +13587,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -13581,7 +13604,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -13590,7 +13613,7 @@
       <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>707</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -13598,7 +13621,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -13615,7 +13638,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -13632,7 +13655,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -13641,7 +13664,7 @@
       <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -13652,7 +13675,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -13669,7 +13692,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -13683,7 +13706,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -13700,7 +13723,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -13717,7 +13740,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -13731,7 +13754,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -13745,7 +13768,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -13759,7 +13782,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -13776,7 +13799,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -13785,7 +13808,7 @@
       <c r="C31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>709</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -13793,7 +13816,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -13807,7 +13830,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -13824,7 +13847,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -13838,7 +13861,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -13855,7 +13878,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -13869,7 +13892,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -13886,7 +13909,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -13895,7 +13918,7 @@
       <c r="C38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>710</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -13903,7 +13926,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -13920,7 +13943,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -13934,7 +13957,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -13951,7 +13974,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -13965,7 +13988,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -13979,7 +14002,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -13996,7 +14019,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -14010,7 +14033,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -14027,7 +14050,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -14044,7 +14067,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -14058,7 +14081,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -14072,7 +14095,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -14089,7 +14112,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -14106,7 +14129,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -14123,7 +14146,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -14140,7 +14163,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -14157,7 +14180,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -14171,7 +14194,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -14182,7 +14205,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -14199,7 +14222,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -14216,7 +14239,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -14233,7 +14256,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -14250,7 +14273,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -14264,7 +14287,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -14278,7 +14301,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -14292,7 +14315,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -14301,7 +14324,7 @@
       <c r="C64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>711</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -14312,7 +14335,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -14329,7 +14352,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -14346,7 +14369,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -14366,7 +14389,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -14383,7 +14406,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -14400,7 +14423,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -14414,7 +14437,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -14428,7 +14451,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -14445,7 +14468,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -14459,7 +14482,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -14473,7 +14496,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -14487,7 +14510,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -14496,8 +14519,8 @@
       <c r="C76" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>713</v>
+      <c r="D76" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>239</v>
@@ -14507,7 +14530,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -14521,7 +14544,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -14530,8 +14553,8 @@
       <c r="C78" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>714</v>
+      <c r="D78" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>246</v>
@@ -14541,7 +14564,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -14555,7 +14578,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -14569,7 +14592,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -14586,7 +14609,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -14600,7 +14623,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -14617,7 +14640,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -14634,7 +14657,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -14648,7 +14671,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -14662,7 +14685,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -14676,7 +14699,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -14685,8 +14708,8 @@
       <c r="C88" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>715</v>
+      <c r="D88" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>276</v>
@@ -14696,7 +14719,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -14710,7 +14733,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -14727,7 +14750,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -14741,7 +14764,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -14755,7 +14778,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -14764,8 +14787,8 @@
       <c r="C93" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>716</v>
+      <c r="D93" s="3" t="s">
+        <v>717</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>290</v>
@@ -14775,7 +14798,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -14792,7 +14815,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -14806,7 +14829,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -14823,7 +14846,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -14837,7 +14860,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -14851,7 +14874,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -14868,7 +14891,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -14885,7 +14908,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -14902,7 +14925,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -14916,7 +14939,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -14930,7 +14953,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -14944,7 +14967,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -14961,7 +14984,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -14975,7 +14998,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -14992,7 +15015,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -15001,15 +15024,15 @@
       <c r="C108" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>717</v>
+      <c r="D108" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -15023,7 +15046,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -15040,7 +15063,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -15054,7 +15077,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -15063,15 +15086,15 @@
       <c r="C112" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>718</v>
+      <c r="D112" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -15088,7 +15111,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -15105,7 +15128,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -15119,7 +15142,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -15133,7 +15156,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -15147,7 +15170,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -15164,7 +15187,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -15173,15 +15196,15 @@
       <c r="C119" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>719</v>
+      <c r="D119" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -15198,7 +15221,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -15212,7 +15235,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -15221,15 +15244,15 @@
       <c r="C122" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>720</v>
+      <c r="D122" s="3" t="s">
+        <v>721</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -15246,7 +15269,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -15255,8 +15278,8 @@
       <c r="C124" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>721</v>
+      <c r="D124" s="3" t="s">
+        <v>722</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>386</v>
@@ -15266,7 +15289,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -15280,7 +15303,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -15289,8 +15312,8 @@
       <c r="C126" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>722</v>
+      <c r="D126" s="3" t="s">
+        <v>723</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>395</v>
@@ -15300,7 +15323,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -15314,7 +15337,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -15331,7 +15354,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -15340,15 +15363,15 @@
       <c r="C129" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>723</v>
+      <c r="D129" s="3" t="s">
+        <v>724</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -15365,7 +15388,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -15374,15 +15397,15 @@
       <c r="C131" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>724</v>
+      <c r="D131" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -15399,7 +15422,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -15413,7 +15436,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -15422,15 +15445,15 @@
       <c r="C134" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>725</v>
+      <c r="D134" s="3" t="s">
+        <v>726</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -15447,7 +15470,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -15461,7 +15484,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -15478,7 +15501,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -15495,7 +15518,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -15509,7 +15532,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -15523,7 +15546,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -15540,7 +15563,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -15557,7 +15580,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -15571,7 +15594,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -15588,7 +15611,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -15605,7 +15628,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -15619,7 +15642,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -15636,7 +15659,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>469</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -15653,7 +15676,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -15667,7 +15690,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -15681,7 +15704,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -15695,7 +15718,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -15712,7 +15735,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -15726,7 +15749,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>487</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -15735,8 +15758,8 @@
       <c r="C154" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>726</v>
+      <c r="D154" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>490</v>
@@ -15746,7 +15769,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -15763,7 +15786,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -15777,7 +15800,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -15794,7 +15817,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>500</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -15808,7 +15831,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>503</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -15822,7 +15845,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>503</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -15836,7 +15859,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -15853,7 +15876,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>514</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -15867,7 +15890,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>517</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -15884,7 +15907,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -15898,7 +15921,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -15915,7 +15938,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -15929,7 +15952,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -15946,7 +15969,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>533</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -15955,8 +15978,8 @@
       <c r="C168" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>727</v>
+      <c r="D168" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>532</v>
@@ -15966,7 +15989,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>536</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -15975,8 +15998,8 @@
       <c r="C169" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>728</v>
+      <c r="D169" s="3" t="s">
+        <v>729</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>539</v>
@@ -15986,7 +16009,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>540</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -16003,7 +16026,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>543</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -16020,7 +16043,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>546</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -16037,7 +16060,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>550</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -16051,7 +16074,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -16068,7 +16091,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>556</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -16082,7 +16105,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -16099,7 +16122,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -16113,7 +16136,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -16130,7 +16153,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -16141,7 +16164,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>569</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -16155,7 +16178,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -16169,7 +16192,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>574</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -16186,7 +16209,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>578</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -16200,7 +16223,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>581</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -16214,7 +16237,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -16231,7 +16254,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -16248,7 +16271,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>592</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -16262,7 +16285,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>596</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -16279,7 +16302,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>601</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -16288,15 +16311,15 @@
       <c r="C189" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>729</v>
+      <c r="D189" s="3" t="s">
+        <v>730</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>605</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -16310,7 +16333,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -16327,7 +16350,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>613</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -16344,7 +16367,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>616</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -16361,7 +16384,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>620</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -16375,7 +16398,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>623</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -16392,7 +16415,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>623</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -16409,7 +16432,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>623</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -16423,7 +16446,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>633</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -16437,7 +16460,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>637</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -16446,8 +16469,8 @@
       <c r="C199" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>730</v>
+      <c r="D199" s="3" t="s">
+        <v>731</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>630</v>
@@ -16457,7 +16480,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>637</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -16468,7 +16491,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>641</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -16485,7 +16508,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>645</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -16502,7 +16525,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>650</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -16519,7 +16542,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -16536,7 +16559,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>657</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -16550,7 +16573,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>660</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -16567,7 +16590,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>664</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -16576,15 +16599,15 @@
       <c r="C207" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>731</v>
+      <c r="D207" s="3" t="s">
+        <v>732</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -16593,8 +16616,8 @@
       <c r="C208" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>732</v>
+      <c r="D208" s="3" t="s">
+        <v>733</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>671</v>
@@ -16604,7 +16627,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -16618,7 +16641,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>675</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -16635,7 +16658,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>679</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -16649,7 +16672,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>681</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -16666,7 +16689,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>685</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -16683,7 +16706,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>688</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -16700,7 +16723,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>692</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -16709,8 +16732,8 @@
       <c r="C215" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>733</v>
+      <c r="D215" s="3" t="s">
+        <v>734</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>695</v>
@@ -16720,7 +16743,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>697</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -16737,7 +16760,39 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="https://drive.google.com/file/d/1EyDH8SBVhQeDzkZXrfFr8nQDAncBniDs/view?usp=drive_link, DW22.001.D002" xr:uid="{860E0E7C-B2CB-41EC-BACB-0C1DFB58E5C2}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{7A18B2D4-245B-4BD4-91AE-AB384520FC2E}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{BBDEF99E-5DC1-4F94-BC8B-CD54B264B479}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{ADE2F36D-EDBB-4F45-A164-D7B141377B83}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{083EE7C3-E947-4D11-8992-BF70708AAB78}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{0B9C9027-6C85-4614-B999-4772EC418D32}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{89F4B731-BB78-4325-AB9F-6F0CF98F8454}"/>
+    <hyperlink ref="D38" r:id="rId8" xr:uid="{B17E4332-3FF3-414E-B260-EB9BF0338FE9}"/>
+    <hyperlink ref="D64" r:id="rId9" xr:uid="{B7FD2033-D409-46C2-91CE-BB61997997DF}"/>
+    <hyperlink ref="D76" r:id="rId10" xr:uid="{904EDC92-3DBA-47E6-BD11-E2A1499340C0}"/>
+    <hyperlink ref="D78" r:id="rId11" xr:uid="{75BBE149-784F-4760-933E-1C5868472DA7}"/>
+    <hyperlink ref="D88" r:id="rId12" xr:uid="{7F9B07A0-9DA2-4E57-ACBC-6DA2E3A3CD67}"/>
+    <hyperlink ref="D93" r:id="rId13" xr:uid="{B5E413D4-D1E5-4F53-9700-B7A45BC29D1E}"/>
+    <hyperlink ref="D108" r:id="rId14" xr:uid="{1C13CBF4-6720-4336-A438-54EB4914E5A4}"/>
+    <hyperlink ref="D112" r:id="rId15" xr:uid="{0D3111D1-CEEE-4483-BA6D-850834060F8A}"/>
+    <hyperlink ref="D119" r:id="rId16" xr:uid="{35B8CB78-CF57-4583-B259-2B9C590E98D3}"/>
+    <hyperlink ref="D122" r:id="rId17" xr:uid="{A6D0855E-7B2C-4182-A7E1-E3BC1F285AFE}"/>
+    <hyperlink ref="D124" r:id="rId18" xr:uid="{6BE5B487-3C36-449A-B7D0-13C41CA33591}"/>
+    <hyperlink ref="D126" r:id="rId19" xr:uid="{76DF04B1-3650-4DB7-A984-81AB4C3A69E1}"/>
+    <hyperlink ref="D129" r:id="rId20" xr:uid="{4B6AE736-2FE2-41EC-90F1-65B618C83580}"/>
+    <hyperlink ref="D131" r:id="rId21" xr:uid="{B83A710B-F5D1-426C-AC92-80C8578A2634}"/>
+    <hyperlink ref="D134" r:id="rId22" xr:uid="{54B03AF7-D556-492E-8EF8-F5795AC8BA57}"/>
+    <hyperlink ref="D154" r:id="rId23" xr:uid="{1DD3B9D3-C190-41EF-8037-346B46EB0FB7}"/>
+    <hyperlink ref="D168" r:id="rId24" xr:uid="{DF1671FF-9505-4994-9DAB-CAADEEF1292D}"/>
+    <hyperlink ref="D169" r:id="rId25" xr:uid="{3A5CD266-F1AE-4B4F-ACF8-118608FCF9A8}"/>
+    <hyperlink ref="D189" r:id="rId26" xr:uid="{E52A825F-6E51-4781-AA42-1B38C3065DAC}"/>
+    <hyperlink ref="D199" r:id="rId27" xr:uid="{66EF8E81-A123-4E5B-87B0-A336D84F055F}"/>
+    <hyperlink ref="D207" r:id="rId28" xr:uid="{934AA62A-F64A-48A8-8ED0-F7AE00DE2F4E}"/>
+    <hyperlink ref="D208" r:id="rId29" xr:uid="{9B98DE67-849C-46B7-83F8-11E8A95E6446}"/>
+    <hyperlink ref="D215" r:id="rId30" xr:uid="{460C84A9-D4DB-496D-A75F-CDAED0F16F77}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/database_sisters/justPlayin/3.xlsx
+++ b/database_sisters/justPlayin/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bridg\PycharmProjects\database-sisters\database_sisters\justPlayin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169444A-73C0-4C4E-8EE1-35AF920B483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D964464-D4D0-4FF7-ACE3-C7B87CB1B40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9270" yWindow="0" windowWidth="11250" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database_sisters/justPlayin/3.xlsx
+++ b/database_sisters/justPlayin/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bridg\PycharmProjects\database-sisters\database_sisters\justPlayin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlucktong/Documents/GitHub/database-sisters/database_sisters/justPlayin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D964464-D4D0-4FF7-ACE3-C7B87CB1B40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34C2E4-FC62-5546-938F-EF7ED3F9BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="0" windowWidth="11250" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="736">
   <si>
     <t>1786-09-04</t>
   </si>
@@ -12920,13 +12920,16 @@
   <si>
     <t>https://drive.google.com/file/d/14EIiAlvZR522cctNpw4XhE0ojasPVvG1/view?usp=drive_link</t>
   </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -12971,7 +12974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -13282,22 +13285,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
-      <selection activeCell="D223" sqref="D223"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.9296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="5.59765625" style="1"/>
+    <col min="7" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -13337,7 +13340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -13394,7 +13397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -13411,7 +13414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -13425,7 +13428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -13442,7 +13445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -13459,7 +13462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -13476,7 +13479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -13493,7 +13496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -13555,7 +13558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -13603,7 +13606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -13654,7 +13657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -13674,7 +13677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -13691,7 +13694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -13705,7 +13708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -13722,7 +13725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
@@ -13739,7 +13742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -13753,7 +13756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
@@ -13767,7 +13770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
@@ -13781,7 +13784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -13798,7 +13801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -13815,7 +13818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
@@ -13829,7 +13832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
@@ -13860,7 +13863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -13877,7 +13880,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>116</v>
       </c>
@@ -13891,7 +13894,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
@@ -13908,7 +13911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
@@ -13925,7 +13928,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -13942,7 +13945,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>126</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
@@ -13973,7 +13976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>137</v>
       </c>
@@ -14032,7 +14035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>137</v>
       </c>
@@ -14049,7 +14052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
@@ -14066,7 +14069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
@@ -14080,7 +14083,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
@@ -14094,7 +14097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -14111,7 +14114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>147</v>
       </c>
@@ -14128,7 +14131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
@@ -14145,7 +14148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -14162,7 +14165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -14179,7 +14182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
@@ -14203,8 +14206,11 @@
       <c r="C56" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F56" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>165</v>
       </c>
@@ -14221,7 +14227,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>170</v>
       </c>
@@ -14238,7 +14244,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>175</v>
       </c>
@@ -14255,7 +14261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>179</v>
       </c>
@@ -14272,7 +14278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>183</v>
       </c>
@@ -14286,7 +14292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
@@ -14300,7 +14306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
@@ -14314,7 +14320,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>194</v>
       </c>
@@ -14334,7 +14340,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>199</v>
       </c>
@@ -14351,7 +14357,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>204</v>
       </c>
@@ -14368,7 +14374,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>208</v>
       </c>
@@ -14388,7 +14394,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>213</v>
       </c>
@@ -14405,7 +14411,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>217</v>
       </c>
@@ -14422,7 +14428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>217</v>
       </c>
@@ -14436,7 +14442,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
@@ -14450,7 +14456,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>217</v>
       </c>
@@ -14467,7 +14473,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>217</v>
       </c>
@@ -14481,7 +14487,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>230</v>
       </c>
@@ -14495,7 +14501,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
@@ -14509,7 +14515,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>236</v>
       </c>
@@ -14529,7 +14535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>240</v>
       </c>
@@ -14543,7 +14549,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>243</v>
       </c>
@@ -14563,7 +14569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>247</v>
       </c>
@@ -14577,7 +14583,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>247</v>
       </c>
@@ -14591,7 +14597,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>247</v>
       </c>
@@ -14608,7 +14614,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>255</v>
       </c>
@@ -14622,7 +14628,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>257</v>
       </c>
@@ -14639,7 +14645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>261</v>
       </c>
@@ -14656,7 +14662,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>265</v>
       </c>
@@ -14670,7 +14676,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
@@ -14684,7 +14690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>268</v>
       </c>
@@ -14698,7 +14704,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>273</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>273</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>279</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>283</v>
       </c>
@@ -14763,7 +14769,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>285</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>287</v>
       </c>
@@ -14797,7 +14803,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>291</v>
       </c>
@@ -14814,7 +14820,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>295</v>
       </c>
@@ -14828,7 +14834,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>298</v>
       </c>
@@ -14845,7 +14851,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>298</v>
       </c>
@@ -14859,7 +14865,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>298</v>
       </c>
@@ -14873,7 +14879,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>306</v>
       </c>
@@ -14890,7 +14896,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>310</v>
       </c>
@@ -14907,7 +14913,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>310</v>
       </c>
@@ -14924,7 +14930,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>317</v>
       </c>
@@ -14938,7 +14944,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>320</v>
       </c>
@@ -14952,7 +14958,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>320</v>
       </c>
@@ -14966,7 +14972,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>324</v>
       </c>
@@ -14983,7 +14989,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>328</v>
       </c>
@@ -14997,7 +15003,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>328</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
@@ -15031,7 +15037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>337</v>
       </c>
@@ -15045,7 +15051,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>340</v>
       </c>
@@ -15062,7 +15068,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>340</v>
       </c>
@@ -15076,7 +15082,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>346</v>
       </c>
@@ -15093,7 +15099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>346</v>
       </c>
@@ -15110,7 +15116,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>352</v>
       </c>
@@ -15127,7 +15133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>356</v>
       </c>
@@ -15141,7 +15147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>359</v>
       </c>
@@ -15155,7 +15161,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>362</v>
       </c>
@@ -15169,7 +15175,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>365</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>369</v>
       </c>
@@ -15203,7 +15209,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>369</v>
       </c>
@@ -15220,7 +15226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>375</v>
       </c>
@@ -15234,7 +15240,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>378</v>
       </c>
@@ -15251,7 +15257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>378</v>
       </c>
@@ -15268,7 +15274,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>383</v>
       </c>
@@ -15288,7 +15294,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>388</v>
       </c>
@@ -15302,7 +15308,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>392</v>
       </c>
@@ -15322,7 +15328,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>397</v>
       </c>
@@ -15336,7 +15342,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>401</v>
       </c>
@@ -15353,7 +15359,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>405</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>408</v>
       </c>
@@ -15387,7 +15393,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>412</v>
       </c>
@@ -15404,7 +15410,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>415</v>
       </c>
@@ -15421,7 +15427,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>419</v>
       </c>
@@ -15435,7 +15441,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>422</v>
       </c>
@@ -15452,7 +15458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>419</v>
       </c>
@@ -15469,7 +15475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>419</v>
       </c>
@@ -15483,7 +15489,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>430</v>
       </c>
@@ -15500,7 +15506,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>434</v>
       </c>
@@ -15517,7 +15523,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
@@ -15531,7 +15537,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>441</v>
       </c>
@@ -15545,7 +15551,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>444</v>
       </c>
@@ -15562,7 +15568,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>448</v>
       </c>
@@ -15579,7 +15585,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>452</v>
       </c>
@@ -15593,7 +15599,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>456</v>
       </c>
@@ -15610,7 +15616,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>460</v>
       </c>
@@ -15627,7 +15633,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>460</v>
       </c>
@@ -15641,7 +15647,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>465</v>
       </c>
@@ -15658,7 +15664,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>469</v>
       </c>
@@ -15675,7 +15681,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>473</v>
       </c>
@@ -15689,7 +15695,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>473</v>
       </c>
@@ -15703,7 +15709,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>478</v>
       </c>
@@ -15717,7 +15723,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>481</v>
       </c>
@@ -15734,7 +15740,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>481</v>
       </c>
@@ -15748,7 +15754,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>487</v>
       </c>
@@ -15768,7 +15774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>491</v>
       </c>
@@ -15785,7 +15791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>491</v>
       </c>
@@ -15799,7 +15805,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>496</v>
       </c>
@@ -15816,7 +15822,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>500</v>
       </c>
@@ -15830,7 +15836,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>503</v>
       </c>
@@ -15844,7 +15850,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>503</v>
       </c>
@@ -15858,7 +15864,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>509</v>
       </c>
@@ -15875,7 +15881,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>514</v>
       </c>
@@ -15889,7 +15895,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>517</v>
       </c>
@@ -15906,7 +15912,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>520</v>
       </c>
@@ -15920,7 +15926,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>520</v>
       </c>
@@ -15937,7 +15943,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>527</v>
       </c>
@@ -15951,7 +15957,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>527</v>
       </c>
@@ -15968,7 +15974,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>533</v>
       </c>
@@ -15988,7 +15994,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>536</v>
       </c>
@@ -16008,7 +16014,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>540</v>
       </c>
@@ -16025,7 +16031,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>543</v>
       </c>
@@ -16042,7 +16048,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>546</v>
       </c>
@@ -16059,7 +16065,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>550</v>
       </c>
@@ -16073,7 +16079,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>553</v>
       </c>
@@ -16090,7 +16096,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>556</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>559</v>
       </c>
@@ -16121,7 +16127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>559</v>
       </c>
@@ -16135,7 +16141,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>559</v>
       </c>
@@ -16152,7 +16158,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>567</v>
       </c>
@@ -16163,7 +16169,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>569</v>
       </c>
@@ -16177,7 +16183,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>572</v>
       </c>
@@ -16191,7 +16197,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>574</v>
       </c>
@@ -16208,7 +16214,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>578</v>
       </c>
@@ -16222,7 +16228,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>581</v>
       </c>
@@ -16236,7 +16242,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>567</v>
       </c>
@@ -16253,7 +16259,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>588</v>
       </c>
@@ -16270,7 +16276,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>592</v>
       </c>
@@ -16284,7 +16290,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>596</v>
       </c>
@@ -16301,7 +16307,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>601</v>
       </c>
@@ -16318,7 +16324,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>605</v>
       </c>
@@ -16332,7 +16338,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>609</v>
       </c>
@@ -16349,7 +16355,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>613</v>
       </c>
@@ -16366,7 +16372,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>616</v>
       </c>
@@ -16383,7 +16389,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>620</v>
       </c>
@@ -16397,7 +16403,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>623</v>
       </c>
@@ -16414,7 +16420,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>623</v>
       </c>
@@ -16431,7 +16437,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>623</v>
       </c>
@@ -16445,7 +16451,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>633</v>
       </c>
@@ -16459,7 +16465,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>637</v>
       </c>
@@ -16479,7 +16485,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>637</v>
       </c>
@@ -16490,7 +16496,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>641</v>
       </c>
@@ -16507,7 +16513,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>645</v>
       </c>
@@ -16524,7 +16530,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>650</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
@@ -16558,7 +16564,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>657</v>
       </c>
@@ -16572,7 +16578,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>660</v>
       </c>
@@ -16589,7 +16595,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>664</v>
       </c>
@@ -16606,7 +16612,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>668</v>
       </c>
@@ -16626,7 +16632,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>668</v>
       </c>
@@ -16640,7 +16646,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>675</v>
       </c>
@@ -16657,7 +16663,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>679</v>
       </c>
@@ -16671,7 +16677,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>681</v>
       </c>
@@ -16688,7 +16694,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>685</v>
       </c>
@@ -16705,7 +16711,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>688</v>
       </c>
@@ -16722,7 +16728,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>692</v>
       </c>
@@ -16742,7 +16748,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>697</v>
       </c>
